--- a/mechanics/V1INV/STLs/Parts List.xlsx
+++ b/mechanics/V1INV/STLs/Parts List.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Part Name</t>
   </si>
@@ -168,19 +168,19 @@
     <t>Volume (cm^3)</t>
   </si>
   <si>
-    <t>g/cm^3</t>
-  </si>
-  <si>
-    <t>(ABS) Density</t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
     <t>Volume subtotal</t>
   </si>
   <si>
-    <t>Overall Mass (ABS)</t>
+    <t>Material/Process</t>
+  </si>
+  <si>
+    <t>Nylon/SLS</t>
+  </si>
+  <si>
+    <t>ASA/FDM</t>
   </si>
 </sst>
 </file>
@@ -190,19 +190,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -246,12 +240,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,20 +560,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684A401-D1C1-4639-87EE-CCEF01DE4432}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="4" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
@@ -589,703 +583,822 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>14.804</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>B2*C2</f>
         <v>29.608000000000001</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1.06</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="G2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>24.797999999999998</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D45" si="0">B3*C3</f>
         <v>24.797999999999998</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>1.369</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1.369</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>0.38100000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>3.048</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>13.702</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>27.404</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="4">
         <v>88.796000000000006</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>88.796000000000006</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>3.641</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>3.641</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="4">
         <v>28.925999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>28.925999999999998</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="4">
         <v>28.925999999999998</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>28.925999999999998</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="4">
         <v>30.643999999999998</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>183.86399999999998</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="4">
         <v>40.381</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>40.381</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="4">
         <v>9.9510000000000005</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>29.853000000000002</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="4">
         <v>3.9470000000000001</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>11.841000000000001</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="4">
         <v>34.831000000000003</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>34.831000000000003</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>12</v>
       </c>
       <c r="C16" s="4">
         <v>1.748</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>20.975999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>6</v>
       </c>
       <c r="C17" s="4">
         <v>4.3010000000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>25.806000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>3</v>
       </c>
       <c r="C18" s="4">
         <v>0.246</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>0.73799999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19" s="4">
         <v>1.861</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>5.5830000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>6</v>
       </c>
       <c r="C20" s="4">
         <v>11.831</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>70.98599999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>0.57699999999999996</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>6.9239999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>6</v>
       </c>
       <c r="C22" s="4">
         <v>7.048</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>42.287999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="G22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>4</v>
       </c>
       <c r="C23" s="4">
         <v>1.7130000000000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>6.8520000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="G23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" s="4">
         <v>3.694</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>14.776</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>1.113</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>2.226</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="G25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="G26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>2</v>
       </c>
       <c r="C27" s="4">
         <v>9.2210000000000001</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>18.442</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="G27" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>2</v>
       </c>
       <c r="C28" s="4">
         <v>2.8149999999999999</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>5.63</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="G28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29" s="4">
         <v>11.361000000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>22.722000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>6</v>
       </c>
       <c r="C30" s="4">
         <v>2.1360000000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>12.816000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="G30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="4">
         <v>22.917000000000002</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>22.917000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="G31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>8</v>
       </c>
       <c r="C32" s="4">
         <v>4.1749999999999998</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <f t="shared" si="0"/>
         <v>33.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="G32" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>2</v>
       </c>
       <c r="C33" s="4">
         <v>10.207000000000001</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <f t="shared" si="0"/>
         <v>20.414000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="G33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" s="4">
         <v>25.434999999999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <f t="shared" si="0"/>
         <v>25.434999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="G34" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>6</v>
       </c>
       <c r="C35" s="4">
         <v>1.6679999999999999</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <f t="shared" si="0"/>
         <v>10.007999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="G35" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
       <c r="C36" s="4">
         <v>6.9379999999999997</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <f t="shared" si="0"/>
         <v>6.9379999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="G36" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" s="4">
         <v>11.888</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <f t="shared" si="0"/>
         <v>11.888</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="G37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="C38" s="4">
         <v>0.79700000000000004</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <f t="shared" si="0"/>
         <v>3.1880000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="G38" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" s="4">
         <v>4.2759999999999998</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>4.2759999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="G39" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="4">
         <v>4.2759999999999998</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <f t="shared" si="0"/>
         <v>4.2759999999999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="G40" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
       <c r="C41" s="4">
         <v>3.8119999999999998</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <f t="shared" si="0"/>
         <v>3.8119999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="G41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>1</v>
       </c>
       <c r="C42" s="4">
         <v>0.67</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="G42" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>2</v>
       </c>
       <c r="C43" s="4">
         <v>30.437999999999999</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>60.875999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="G43" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>2</v>
       </c>
       <c r="C44" s="4">
         <v>2.4009999999999998</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <f t="shared" si="0"/>
         <v>4.8019999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="G44" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>1</v>
       </c>
       <c r="C45" s="4">
         <v>0.80200000000000005</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <f t="shared" si="0"/>
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="5">
+      <c r="G45" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="6">
         <f>SUM(B2:B45)</f>
         <v>136</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5">
-        <f t="shared" ref="C47:D47" si="1">SUM(D2:D45)</f>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <f t="shared" ref="D47" si="1">SUM(D2:D45)</f>
         <v>1008.3029999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="2">
-        <f>D47*H2</f>
-        <v>1068.8011799999997</v>
       </c>
     </row>
   </sheetData>

--- a/mechanics/V1INV/STLs/Parts List.xlsx
+++ b/mechanics/V1INV/STLs/Parts List.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\planb\mechanics\V1INV\STLs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\planb\mechanics\V1INV\STLs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13368" xr2:uid="{CBA2A89F-C672-40CA-BA9A-DFEC75D8D9D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Part Name</t>
   </si>
@@ -181,12 +181,33 @@
   </si>
   <si>
     <t>ASA/FDM</t>
+  </si>
+  <si>
+    <t>Rec'd?</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Warped</t>
+  </si>
+  <si>
+    <t>1 burnt</t>
+  </si>
+  <si>
+    <t>Not actually ordered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -250,8 +271,98 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,11 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684A401-D1C1-4639-87EE-CCEF01DE4432}">
-  <dimension ref="A1:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -573,10 +684,12 @@
     <col min="3" max="3" width="11.21875" style="4" customWidth="1"/>
     <col min="4" max="6" width="8.88671875" style="3"/>
     <col min="7" max="7" width="20" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="12.6640625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +705,11 @@
       <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -611,9 +727,11 @@
         <v>51</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -630,8 +748,14 @@
       <c r="G3" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -648,8 +772,14 @@
       <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -666,8 +796,11 @@
       <c r="G5" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -684,8 +817,11 @@
       <c r="G6" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -702,8 +838,11 @@
       <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -720,8 +859,11 @@
       <c r="G8" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -738,8 +880,11 @@
       <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -756,8 +901,11 @@
       <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -774,8 +922,11 @@
       <c r="G11" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -792,8 +943,11 @@
       <c r="G12" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -810,8 +964,14 @@
       <c r="G13" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -828,8 +988,11 @@
       <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -846,8 +1009,11 @@
       <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -864,8 +1030,11 @@
       <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -882,8 +1051,11 @@
       <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -900,8 +1072,11 @@
       <c r="G18" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -918,8 +1093,11 @@
       <c r="G19" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -936,8 +1114,11 @@
       <c r="G20" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -954,8 +1135,11 @@
       <c r="G21" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -972,8 +1156,11 @@
       <c r="G22" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -990,8 +1177,14 @@
       <c r="G23" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1008,8 +1201,11 @@
       <c r="G24" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1026,8 +1222,11 @@
       <c r="G25" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1044,8 +1243,11 @@
       <c r="G26" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1062,8 +1264,11 @@
       <c r="G27" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1080,8 +1285,11 @@
       <c r="G28" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1098,8 +1306,11 @@
       <c r="G29" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1116,8 +1327,11 @@
       <c r="G30" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1134,8 +1348,11 @@
       <c r="G31" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1152,8 +1369,11 @@
       <c r="G32" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1170,8 +1390,14 @@
       <c r="G33" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1188,8 +1414,11 @@
       <c r="G34" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1206,8 +1435,11 @@
       <c r="G35" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1224,8 +1456,11 @@
       <c r="G36" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1242,8 +1477,11 @@
       <c r="G37" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1260,8 +1498,11 @@
       <c r="G38" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1278,8 +1519,11 @@
       <c r="G39" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1296,8 +1540,11 @@
       <c r="G40" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I40" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1314,8 +1561,11 @@
       <c r="G41" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I41" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1332,8 +1582,11 @@
       <c r="G42" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I42" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1350,8 +1603,11 @@
       <c r="G43" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I43" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1368,8 +1624,11 @@
       <c r="G44" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I44" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1386,8 +1645,11 @@
       <c r="G45" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I45" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1402,6 +1664,20 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I45">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Warped"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Missing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/mechanics/V1INV/STLs/Parts List.xlsx
+++ b/mechanics/V1INV/STLs/Parts List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>Part Name</t>
   </si>
@@ -186,22 +186,7 @@
     <t>Rec'd?</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Warped</t>
-  </si>
-  <si>
-    <t>1 burnt</t>
-  </si>
-  <si>
-    <t>Not actually ordered</t>
   </si>
 </sst>
 </file>
@@ -271,7 +256,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -297,62 +282,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -671,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -689,7 +618,7 @@
     <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -728,10 +657,10 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,11 +680,8 @@
       <c r="I3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -775,11 +701,8 @@
       <c r="I4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,10 +720,10 @@
         <v>50</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -818,10 +741,10 @@
         <v>50</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -839,10 +762,10 @@
         <v>50</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -860,10 +783,10 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -884,7 +807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -902,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -923,10 +846,10 @@
         <v>51</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -944,10 +867,10 @@
         <v>51</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -967,11 +890,8 @@
       <c r="I13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -989,10 +909,10 @@
         <v>51</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1010,10 +930,10 @@
         <v>51</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1031,10 +951,10 @@
         <v>51</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1052,10 +972,10 @@
         <v>51</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1073,10 +993,10 @@
         <v>50</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1094,31 +1014,31 @@
         <v>51</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>11.831</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>70.98599999999999</v>
+        <v>141.97199999999998</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1136,10 +1056,10 @@
         <v>51</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1157,10 +1077,10 @@
         <v>51</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1178,13 +1098,10 @@
         <v>51</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1202,10 +1119,10 @@
         <v>51</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1223,10 +1140,10 @@
         <v>51</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1244,10 +1161,10 @@
         <v>50</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1265,10 +1182,10 @@
         <v>51</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1286,10 +1203,10 @@
         <v>51</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1307,10 +1224,10 @@
         <v>51</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1328,10 +1245,10 @@
         <v>51</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1349,10 +1266,10 @@
         <v>51</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1373,7 +1290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1393,11 +1310,8 @@
       <c r="I33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1415,10 +1329,10 @@
         <v>51</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1436,10 +1350,10 @@
         <v>51</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1457,10 +1371,10 @@
         <v>51</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1478,10 +1392,10 @@
         <v>51</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1499,10 +1413,10 @@
         <v>51</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1523,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1541,10 +1455,10 @@
         <v>51</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1562,10 +1476,10 @@
         <v>51</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1583,10 +1497,10 @@
         <v>50</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1625,10 +1539,10 @@
         <v>51</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1646,21 +1560,21 @@
         <v>50</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="6">
         <f>SUM(B2:B45)</f>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
         <f t="shared" ref="D47" si="1">SUM(D2:D45)</f>
-        <v>1008.3029999999998</v>
+        <v>1079.2889999999995</v>
       </c>
     </row>
   </sheetData>
